--- a/test/should .xlsx
+++ b/test/should .xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OnePiTranslator\国内完整版带语言包\test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3669A7F-1763-49C8-A074-3BCF8977E5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="8175" yWindow="1560" windowWidth="27960" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,184 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>"To be, or not to be, that is the question:"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">— William Shakespeare, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hamlet</t>
+    </r>
+  </si>
+  <si>
+    <t>"I wandered lonely as a cloud"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">— William Wordsworth, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I Wandered Lonely as a Cloud</t>
+    </r>
+  </si>
+  <si>
+    <t>"Shall I compare thee to a summer's day? Thou art more lovely and more temperate:"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">— William Shakespeare, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sonnet 18</t>
+    </r>
+  </si>
+  <si>
+    <t>"Hope is the thing with feathers that perches in the soul"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">— Emily Dickinson, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hope is the Thing with Feathers</t>
+    </r>
+  </si>
+  <si>
+    <t>"Do not go gentle into that good night, Old age should burn and rave at close of day;"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">— Dylan Thomas, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Do Not Go Gentle into That Good Night</t>
+    </r>
+  </si>
+  <si>
+    <t>"And miles to go before I sleep, And miles to go before I sleep."</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">— Robert Frost, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stopping by Woods on a Snowy Evening</t>
+    </r>
+  </si>
+  <si>
+    <t>"Two roads diverged in a wood, and I— I took the one less traveled by,"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">— Robert Frost, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Road Not Taken</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +225,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +507,88 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>